--- a/data_excel/975.xlsx
+++ b/data_excel/975.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>外婆</t>
   </si>
@@ -87,18 +87,6 @@
     <t>大</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>特點</t>
-  </si>
-  <si>
-    <t>雞</t>
-  </si>
-  <si>
     <t>和</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>豬</t>
   </si>
   <si>
     <t>=</t>
@@ -119,6 +104,14 @@
   </si>
   <si>
     <t>哪1種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小豬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -559,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -591,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -611,80 +604,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data_excel/975.xlsx
+++ b/data_excel/975.xlsx
@@ -99,10 +99,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哪1種</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>小豬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
